--- a/Documents/OnBoardCalibrationCTest端电压标定.xlsx
+++ b/Documents/OnBoardCalibrationCTest端电压标定.xlsx
@@ -431,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +468,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,35 +501,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,13 +802,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -811,13 +817,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1228,13 +1234,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -1646,12 +1652,12 @@
     </row>
     <row r="51" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
@@ -1668,17 +1674,17 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
-        <v>0.58395511126867705</v>
-      </c>
-      <c r="B54" s="18">
-        <v>0.61984286049978499</v>
-      </c>
-      <c r="C54" s="18">
-        <v>0.62145838517210406</v>
-      </c>
-      <c r="D54" s="19">
-        <v>0.58566768441049399</v>
+      <c r="A54" s="12">
+        <v>0.58737785634387996</v>
+      </c>
+      <c r="B54" s="13">
+        <v>0.62329845298018505</v>
+      </c>
+      <c r="C54" s="13">
+        <v>0.62421170901246403</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0.58850433944550995</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1696,17 +1702,17 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
-        <v>0.58950772855117495</v>
-      </c>
-      <c r="B56" s="18">
-        <v>0.61499984900565496</v>
-      </c>
-      <c r="C56" s="18">
-        <v>0.61715455089091398</v>
-      </c>
-      <c r="D56" s="19">
-        <v>0.59077218036148704</v>
+      <c r="A56" s="12">
+        <v>0.59291254693991702</v>
+      </c>
+      <c r="B56" s="13">
+        <v>0.61857260206935105</v>
+      </c>
+      <c r="C56" s="13">
+        <v>0.62016671160914005</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0.59360565975551305</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1724,17 +1730,17 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17">
-        <v>0.59497430264991902</v>
-      </c>
-      <c r="B58" s="18">
-        <v>0.61058555921542101</v>
-      </c>
-      <c r="C58" s="18">
-        <v>0.61140146816834695</v>
-      </c>
-      <c r="D58" s="19">
-        <v>0.59542989348292696</v>
+      <c r="A58" s="12">
+        <v>0.59830854006871204</v>
+      </c>
+      <c r="B58" s="13">
+        <v>0.61396672259507801</v>
+      </c>
+      <c r="C58" s="13">
+        <v>0.61425153303771196</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0.59825236197666998</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1752,32 +1758,32 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="20">
-        <v>0.60012694220408302</v>
-      </c>
-      <c r="B60" s="21">
-        <v>0.60430828389579305</v>
-      </c>
-      <c r="C60" s="21">
-        <v>0.60634904796492695</v>
-      </c>
-      <c r="D60" s="22">
-        <v>0.60081120925394005</v>
+      <c r="A60" s="15">
+        <v>0.60356099193032897</v>
+      </c>
+      <c r="B60" s="16">
+        <v>0.60796320709491902</v>
+      </c>
+      <c r="C60" s="16">
+        <v>0.60909076382230698</v>
+      </c>
+      <c r="D60" s="17">
+        <v>0.60361320010386699</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
     </row>
     <row r="63" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -1794,20 +1800,20 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17">
-        <v>1.1227650050129501</v>
-      </c>
-      <c r="B64" s="18">
-        <v>1.37807177304563</v>
-      </c>
-      <c r="C64" s="18">
-        <v>6.0715739424597697</v>
-      </c>
-      <c r="D64" s="19">
-        <v>5.7044989846059098</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
+        <v>-4.36834921300711</v>
+      </c>
+      <c r="B64" s="13">
+        <v>-4.1657395783394504</v>
+      </c>
+      <c r="C64" s="13">
+        <v>1.65441305129467</v>
+      </c>
+      <c r="D64" s="14">
+        <v>1.1536497533160499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>24</v>
       </c>
@@ -1821,21 +1827,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
-        <v>0.901732283766288</v>
-      </c>
-      <c r="B66" s="18">
-        <v>1.0619779338351201</v>
-      </c>
-      <c r="C66" s="18">
-        <v>4.8313942483222503</v>
-      </c>
-      <c r="D66" s="19">
-        <v>5.9184877230015598</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="12">
+        <v>-4.5606221286749999</v>
+      </c>
+      <c r="B66" s="13">
+        <v>-4.66979428831067</v>
+      </c>
+      <c r="C66" s="13">
+        <v>-1.0189707171734501E-3</v>
+      </c>
+      <c r="D66" s="14">
+        <v>1.37273317653434</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>1</v>
       </c>
@@ -1849,21 +1855,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
-        <v>0.91264234183990101</v>
-      </c>
-      <c r="B68" s="18">
-        <v>1.1059328955393</v>
-      </c>
-      <c r="C68" s="18">
-        <v>5.9454284960702699</v>
-      </c>
-      <c r="D68" s="19">
-        <v>5.66699087688162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
+        <v>-4.4364789319667901</v>
+      </c>
+      <c r="B68" s="13">
+        <v>-4.3184717561518404</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1.37306585071137</v>
+      </c>
+      <c r="D68" s="14">
+        <v>1.13890113155189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>0</v>
       </c>
@@ -1877,35 +1883,35 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="20">
-        <v>1.2729678753525799</v>
-      </c>
-      <c r="B70" s="21">
-        <v>1.50001745643332</v>
-      </c>
-      <c r="C70" s="21">
-        <v>5.8227072531077102</v>
-      </c>
-      <c r="D70" s="22">
-        <v>6.05719515478593</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-    </row>
-    <row r="72" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="s">
+    <row r="70" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="15">
+        <v>-4.2362824085167796</v>
+      </c>
+      <c r="B70" s="16">
+        <v>-4.3635804170658901</v>
+      </c>
+      <c r="C70" s="16">
+        <v>1.42416906359888</v>
+      </c>
+      <c r="D70" s="17">
+        <v>1.56195771911982</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+    </row>
+    <row r="72" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="26"/>
-    </row>
-    <row r="73" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+    </row>
+    <row r="73" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>20</v>
       </c>
@@ -1918,22 +1924,27 @@
       <c r="D73" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17">
-        <v>0.99992828054701599</v>
-      </c>
-      <c r="B74" s="18">
-        <v>0.999934264907402</v>
-      </c>
-      <c r="C74" s="18">
-        <v>0.99995886055313099</v>
-      </c>
-      <c r="D74" s="19">
-        <v>0.99995104767184495</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="28"/>
+    </row>
+    <row r="74" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="12">
+        <v>0.99999974487963195</v>
+      </c>
+      <c r="B74" s="13">
+        <v>0.999998724196139</v>
+      </c>
+      <c r="C74" s="13">
+        <v>0.99999965609584096</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0.99999985297044802</v>
+      </c>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+    </row>
+    <row r="75" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>24</v>
       </c>
@@ -1946,22 +1957,30 @@
       <c r="D75" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
-        <v>0.99992975504538995</v>
-      </c>
-      <c r="B76" s="18">
-        <v>0.99992923097639197</v>
-      </c>
-      <c r="C76" s="18">
-        <v>0.99994474618259299</v>
-      </c>
-      <c r="D76" s="19">
-        <v>0.99995169547407003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="27"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+    </row>
+    <row r="76" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="12">
+        <v>0.99999901008217196</v>
+      </c>
+      <c r="B76" s="13">
+        <v>0.99999936267957201</v>
+      </c>
+      <c r="C76" s="13">
+        <v>0.99999303916843496</v>
+      </c>
+      <c r="D76" s="14">
+        <v>0.99999948470753097</v>
+      </c>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+    </row>
+    <row r="77" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>1</v>
       </c>
@@ -1974,22 +1993,30 @@
       <c r="D77" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
-        <v>0.99993416769857901</v>
-      </c>
-      <c r="B78" s="18">
-        <v>0.99991841334501896</v>
-      </c>
-      <c r="C78" s="18">
-        <v>0.99995442617332697</v>
-      </c>
-      <c r="D78" s="19">
-        <v>0.99994293846455595</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="27"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+    </row>
+    <row r="78" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="12">
+        <v>0.99999943422349502</v>
+      </c>
+      <c r="B78" s="13">
+        <v>0.99997821715345203</v>
+      </c>
+      <c r="C78" s="13">
+        <v>0.99999958157445301</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0.99998735909840697</v>
+      </c>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+    </row>
+    <row r="79" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>0</v>
       </c>
@@ -2002,20 +2029,28 @@
       <c r="D79" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="20">
-        <v>0.99993130908940997</v>
-      </c>
-      <c r="B80" s="21">
-        <v>0.99992355761973295</v>
-      </c>
-      <c r="C80" s="21">
-        <v>0.99995698303415304</v>
-      </c>
-      <c r="D80" s="22">
-        <v>0.99995421631949899</v>
-      </c>
+      <c r="E79" s="27"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+    </row>
+    <row r="80" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="15">
+        <v>0.99999934591278905</v>
+      </c>
+      <c r="B80" s="16">
+        <v>0.99999963121492697</v>
+      </c>
+      <c r="C80" s="16">
+        <v>0.99999943849472095</v>
+      </c>
+      <c r="D80" s="17">
+        <v>0.99999937501854397</v>
+      </c>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
